--- a/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.61948197586615</v>
+        <v>10.71293986361485</v>
       </c>
       <c r="C2" t="n">
-        <v>6.425005211839678</v>
+        <v>6.796865242845359</v>
       </c>
       <c r="D2" t="n">
-        <v>14.88029001599427</v>
+        <v>15.33365435996065</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>7.483614530481882</v>
+        <v>7.533545333873557</v>
       </c>
       <c r="C3" t="n">
-        <v>3.700860793113629</v>
+        <v>3.606192729219999</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4705254594757</v>
+        <v>11.41239689464292</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>8.422341253528325</v>
+        <v>8.542627057872993</v>
       </c>
       <c r="C4" t="n">
-        <v>4.352790712605412</v>
+        <v>4.434121811339204</v>
       </c>
       <c r="D4" t="n">
-        <v>12.15456857487121</v>
+        <v>12.56979879144599</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>11.74690414587107</v>
+        <v>11.72324870830757</v>
       </c>
       <c r="C5" t="n">
-        <v>8.087029588533532</v>
+        <v>8.052702156262747</v>
       </c>
       <c r="D5" t="n">
-        <v>15.83888538786053</v>
+        <v>15.83173669789091</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -556,13 +556,13 @@
         <v>45054</v>
       </c>
       <c r="B6" t="n">
-        <v>12.30068622049325</v>
+        <v>12.28358978229472</v>
       </c>
       <c r="C6" t="n">
-        <v>8.587271858953736</v>
+        <v>7.813521319813216</v>
       </c>
       <c r="D6" t="n">
-        <v>16.11379966405895</v>
+        <v>16.25273571543503</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45061</v>
       </c>
       <c r="B7" t="n">
-        <v>11.62283676211558</v>
+        <v>11.61208873992103</v>
       </c>
       <c r="C7" t="n">
-        <v>7.677541580366678</v>
+        <v>7.673827282146027</v>
       </c>
       <c r="D7" t="n">
-        <v>15.65018315807783</v>
+        <v>15.37703264215273</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.644324613261928</v>
+        <v>6.038681776697942</v>
       </c>
       <c r="C2" t="n">
-        <v>2.577658746471675</v>
+        <v>2.457372942127007</v>
       </c>
       <c r="D2" t="n">
-        <v>2.577658746471675</v>
+        <v>2.457372942127007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2343326133156068</v>
+        <v>0.2233975401933643</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2343326133156068</v>
+        <v>0.2233975401933643</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2654323402955768</v>
+        <v>0.2514884958762004</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2666539531294475</v>
+        <v>0.217579955551131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5163854695181183</v>
+        <v>0.4664546661264426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5163854695181183</v>
+        <v>0.4664546661264426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06454818368976478</v>
+        <v>0.05830683326580532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06454818368976478</v>
+        <v>0.05830683326580532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06670089448449312</v>
+        <v>0.06005772102898599</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -709,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.861685821887615</v>
+        <v>7.360042703590557</v>
       </c>
       <c r="C4" t="n">
-        <v>2.619481975866147</v>
+        <v>2.712939863614849</v>
       </c>
       <c r="D4" t="n">
-        <v>2.619481975866147</v>
+        <v>2.712939863614849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3274352469832684</v>
+        <v>0.3391174829518562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3274352469832684</v>
+        <v>0.3391174829518562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2813700165516332</v>
+        <v>0.2899533567026363</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -735,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12.23242969998988</v>
+        <v>12.19330764408905</v>
       </c>
       <c r="C5" t="n">
-        <v>3.497489056450338</v>
+        <v>3.491891699937019</v>
       </c>
       <c r="D5" t="n">
-        <v>3.39220627891259</v>
+        <v>3.390809937969392</v>
       </c>
       <c r="E5" t="n">
-        <v>0.383791930326057</v>
+        <v>0.3831949691802378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.452854595264448</v>
+        <v>0.4515110924901284</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3226547931861877</v>
+        <v>0.3225807450767936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.71293986361485</v>
+        <v>9.762175586770077</v>
       </c>
       <c r="C2" t="n">
-        <v>6.796865242845359</v>
+        <v>5.510232185612916</v>
       </c>
       <c r="D2" t="n">
-        <v>15.33365435996065</v>
+        <v>13.89326087134848</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>7.533545333873557</v>
+        <v>7.718590955100041</v>
       </c>
       <c r="C3" t="n">
-        <v>3.606192729219999</v>
+        <v>3.249436429325763</v>
       </c>
       <c r="D3" t="n">
-        <v>11.41239689464292</v>
+        <v>12.01266154649927</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>8.542627057872993</v>
+        <v>8.989544770054742</v>
       </c>
       <c r="C4" t="n">
-        <v>4.434121811339204</v>
+        <v>5.047117302220911</v>
       </c>
       <c r="D4" t="n">
-        <v>12.56979879144599</v>
+        <v>13.03024462756952</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>11.72324870830757</v>
+        <v>11.95842880035727</v>
       </c>
       <c r="C5" t="n">
-        <v>8.052702156262747</v>
+        <v>7.769312100338309</v>
       </c>
       <c r="D5" t="n">
-        <v>15.83173669789091</v>
+        <v>16.41999314043726</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -556,13 +556,13 @@
         <v>45054</v>
       </c>
       <c r="B6" t="n">
-        <v>12.28358978229472</v>
+        <v>12.42595024229961</v>
       </c>
       <c r="C6" t="n">
-        <v>7.813521319813216</v>
+        <v>8.604146294902861</v>
       </c>
       <c r="D6" t="n">
-        <v>16.25273571543503</v>
+        <v>16.2444852573837</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45061</v>
       </c>
       <c r="B7" t="n">
-        <v>11.61208873992103</v>
+        <v>11.8128912025711</v>
       </c>
       <c r="C7" t="n">
-        <v>7.673827282146027</v>
+        <v>7.748828002014396</v>
       </c>
       <c r="D7" t="n">
-        <v>15.37703264215273</v>
+        <v>15.97789426078822</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.038681776697942</v>
+        <v>4.04193023161424</v>
       </c>
       <c r="C2" t="n">
-        <v>2.457372942127007</v>
+        <v>2.010455229945258</v>
       </c>
       <c r="D2" t="n">
-        <v>2.457372942127007</v>
+        <v>2.010455229945258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2233975401933643</v>
+        <v>0.1827686572677507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2233975401933643</v>
+        <v>0.1827686572677507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2514884958762004</v>
+        <v>0.2011506768235175</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.217579955551131</v>
+        <v>0.07919105055150732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4664546661264426</v>
+        <v>0.2814090448999593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4664546661264426</v>
+        <v>0.2814090448999593</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05830683326580532</v>
+        <v>0.03517613061249492</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05830683326580532</v>
+        <v>0.03517613061249492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06005772102898599</v>
+        <v>0.03580588688945475</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -709,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>7.360042703590557</v>
+        <v>3.105262798608465</v>
       </c>
       <c r="C4" t="n">
-        <v>2.712939863614849</v>
+        <v>1.762175586770077</v>
       </c>
       <c r="D4" t="n">
-        <v>2.712939863614849</v>
+        <v>1.762175586770077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3391174829518562</v>
+        <v>0.2202719483462596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3391174829518562</v>
+        <v>0.2202719483462596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2899533567026363</v>
+        <v>0.1984188905420584</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -735,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12.19330764408905</v>
+        <v>12.76506261105559</v>
       </c>
       <c r="C5" t="n">
-        <v>3.491891699937019</v>
+        <v>3.572822779127953</v>
       </c>
       <c r="D5" t="n">
-        <v>3.390809937969392</v>
+        <v>3.426804214837815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3831949691802378</v>
+        <v>0.3918938982896781</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4515110924901284</v>
+        <v>0.4766114003213879</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3225807450767936</v>
+        <v>0.3251835969218088</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.762175586770077</v>
+        <v>10.71293986361486</v>
       </c>
       <c r="C2" t="n">
-        <v>5.510232185612916</v>
+        <v>6.582149017447913</v>
       </c>
       <c r="D2" t="n">
-        <v>13.89326087134848</v>
+        <v>14.95222143273603</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>7.718590955100041</v>
+        <v>7.533545333873577</v>
       </c>
       <c r="C3" t="n">
-        <v>3.249436429325763</v>
+        <v>3.535923669177876</v>
       </c>
       <c r="D3" t="n">
-        <v>12.01266154649927</v>
+        <v>11.54382209764533</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>8.989544770054742</v>
+        <v>8.542627057873005</v>
       </c>
       <c r="C4" t="n">
-        <v>5.047117302220911</v>
+        <v>4.588400452728667</v>
       </c>
       <c r="D4" t="n">
-        <v>13.03024462756952</v>
+        <v>12.43922733524143</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>11.95842880035727</v>
+        <v>11.72324870830758</v>
       </c>
       <c r="C5" t="n">
-        <v>7.769312100338309</v>
+        <v>7.596671541087582</v>
       </c>
       <c r="D5" t="n">
-        <v>16.41999314043726</v>
+        <v>15.77102585377992</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -556,13 +556,13 @@
         <v>45054</v>
       </c>
       <c r="B6" t="n">
-        <v>12.42595024229961</v>
+        <v>12.2835897822947</v>
       </c>
       <c r="C6" t="n">
-        <v>8.604146294902861</v>
+        <v>8.428530532538671</v>
       </c>
       <c r="D6" t="n">
-        <v>16.2444852573837</v>
+        <v>16.34737634997109</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45061</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8128912025711</v>
+        <v>11.61208873992105</v>
       </c>
       <c r="C7" t="n">
-        <v>7.748828002014396</v>
+        <v>7.60261981940041</v>
       </c>
       <c r="D7" t="n">
-        <v>15.97789426078822</v>
+        <v>15.58680511705719</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.04193023161424</v>
+        <v>6.038681776697882</v>
       </c>
       <c r="C2" t="n">
-        <v>2.010455229945258</v>
+        <v>2.457372942126995</v>
       </c>
       <c r="D2" t="n">
-        <v>2.010455229945258</v>
+        <v>2.457372942126995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1827686572677507</v>
+        <v>0.2233975401933631</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1827686572677507</v>
+        <v>0.2233975401933631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2011506768235175</v>
+        <v>0.2514884958761989</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07919105055150732</v>
+        <v>0.2175799555511128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2814090448999593</v>
+        <v>0.4664546661264231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2814090448999593</v>
+        <v>0.4664546661264231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03517613061249492</v>
+        <v>0.05830683326580288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03517613061249492</v>
+        <v>0.05830683326580288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03580588688945475</v>
+        <v>0.06005772102898341</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -709,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3.105262798608465</v>
+        <v>7.360042703590596</v>
       </c>
       <c r="C4" t="n">
-        <v>1.762175586770077</v>
+        <v>2.712939863614857</v>
       </c>
       <c r="D4" t="n">
-        <v>1.762175586770077</v>
+        <v>2.712939863614857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2202719483462596</v>
+        <v>0.3391174829518571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2202719483462596</v>
+        <v>0.3391174829518571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1984188905420584</v>
+        <v>0.2899533567026369</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -735,22 +735,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12.76506261105559</v>
+        <v>12.19330764408904</v>
       </c>
       <c r="C5" t="n">
-        <v>3.572822779127953</v>
+        <v>3.491891699937019</v>
       </c>
       <c r="D5" t="n">
-        <v>3.426804214837815</v>
+        <v>3.390809937969391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3918938982896781</v>
+        <v>0.3831949691802378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4766114003213879</v>
+        <v>0.4515110924901309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3251835969218088</v>
+        <v>0.3225807450767936</v>
       </c>
       <c r="H5" t="n">
         <v>0.6666666666666667</v>
